--- a/Fall-2013-KATE-post-help.xlsx
+++ b/Fall-2013-KATE-post-help.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="0" windowWidth="22760" windowHeight="16520" tabRatio="629" activeTab="7"/>
+    <workbookView xWindow="2780" yWindow="0" windowWidth="22760" windowHeight="16140" tabRatio="629" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="461">
   <si>
     <t>AF1031</t>
   </si>
@@ -1385,6 +1385,30 @@
   </si>
   <si>
     <t>SRN</t>
+  </si>
+  <si>
+    <t>Baily Escover</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Abus</t>
+  </si>
+  <si>
+    <t>Bostick</t>
+  </si>
+  <si>
+    <t>Cameron Shoffner</t>
+  </si>
+  <si>
+    <t>Nolan Smith</t>
+  </si>
+  <si>
+    <t>Jessica Wood</t>
+  </si>
+  <si>
+    <t>Brooke Young</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1527,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="186">
+  <cellStyleXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1690,8 +1714,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1716,8 +1760,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="186">
+  <cellStyles count="206">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1810,6 +1857,16 @@
     <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1902,6 +1959,16 @@
     <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -7674,8 +7741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:S30"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14044,14 +14111,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K30"/>
+    <sheetView topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
@@ -14105,10 +14173,10 @@
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" s="2">
         <v>2</v>
@@ -14132,11 +14200,11 @@
         <v>30</v>
       </c>
       <c r="F3" s="13">
-        <f t="shared" ref="F3:F30" si="1">E3/50</f>
+        <f t="shared" ref="F3:F31" si="1">E3/50</f>
         <v>0.6</v>
       </c>
       <c r="G3" s="13">
-        <f t="shared" ref="G3:G30" si="2">C3/25</f>
+        <f t="shared" ref="G3:G31" si="2">C3/25</f>
         <v>0.6</v>
       </c>
       <c r="H3" s="17"/>
@@ -14144,7 +14212,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -14164,7 +14232,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E30" si="3">C4+D4</f>
+        <f t="shared" ref="E4:E31" si="3">C4+D4</f>
         <v>31</v>
       </c>
       <c r="F4" s="13">
@@ -14177,7 +14245,7 @@
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -14252,7 +14320,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="2">
         <v>2</v>
@@ -14291,7 +14359,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18">
@@ -14308,120 +14376,101 @@
         <v>17</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f>C8+D8</f>
         <v>35</v>
       </c>
       <c r="F8" s="13">
-        <f t="shared" si="1"/>
+        <f>E8/50</f>
         <v>0.7</v>
       </c>
       <c r="G8" s="13">
-        <f t="shared" si="2"/>
+        <f>C8/25</f>
         <v>0.72</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18">
       <c r="A9" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18">
+      <c r="A10" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <f t="shared" si="1"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="2">
-        <v>2</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18">
-      <c r="A10" s="9" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18">
+      <c r="A11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>19</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>22</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <f t="shared" si="1"/>
         <v>0.82</v>
-      </c>
-      <c r="G10" s="16">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18">
-      <c r="A11" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="C11">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="1"/>
-        <v>0.84</v>
       </c>
       <c r="G11" s="16">
         <f t="shared" si="2"/>
@@ -14429,7 +14478,7 @@
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -14440,713 +14489,740 @@
     </row>
     <row r="12" spans="1:11" ht="18">
       <c r="A12" s="9" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" si="1"/>
-        <v>0.42</v>
-      </c>
-      <c r="G12" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="G12" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18">
       <c r="A13" s="9" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>21</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F13" s="13">
         <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18">
+      <c r="A14" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="1"/>
         <v>0.74</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G14" s="16">
         <f t="shared" si="2"/>
         <v>0.64</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18">
-      <c r="A14" s="9" t="s">
+      <c r="H14" s="17"/>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18">
+      <c r="A15" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B15" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>21</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>20</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <f t="shared" si="1"/>
         <v>0.82</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <f t="shared" si="2"/>
         <v>0.84</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18">
-      <c r="A15" s="9" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18">
+      <c r="A16" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B16" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>23</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>13</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <f t="shared" si="2"/>
         <v>0.92</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18">
-      <c r="A16" s="9" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18">
+      <c r="A17" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B17" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
         <v>17</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G17" s="16">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="18">
-      <c r="A17" s="9" t="s">
+      <c r="H17" s="17"/>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18">
+      <c r="A18" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>24</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <f t="shared" si="1"/>
         <v>0.74</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G18" s="16">
         <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="18">
-      <c r="A18" s="11" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18">
+      <c r="A19" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>394</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>15</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>19</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <f t="shared" si="1"/>
         <v>0.68</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G19" s="16">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="18">
-      <c r="A19" s="11" t="s">
+      <c r="H19" s="17"/>
+      <c r="I19" s="2">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18">
+      <c r="A20" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>395</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>21</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>25</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G20" s="16">
         <f t="shared" si="2"/>
         <v>0.84</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="2">
-        <v>2</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="18">
-      <c r="A20" s="11" t="s">
+      <c r="H20" s="17"/>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="18">
+      <c r="A21" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>396</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>11</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <f t="shared" si="1"/>
         <v>0.22</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>2</v>
-      </c>
-      <c r="K20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="18">
-      <c r="A21" s="11" t="s">
+      <c r="H21" s="17"/>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="18">
+      <c r="A22" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>397</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>17</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <f t="shared" si="1"/>
         <v>0.34</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2">
-        <v>2</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="18">
-      <c r="A22" s="11" t="s">
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" ht="18">
+      <c r="A23" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>398</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>12</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>17</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <f t="shared" si="1"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G23" s="16">
         <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="18">
-      <c r="A23" s="11" t="s">
+      <c r="H23" s="17"/>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="18">
+      <c r="A24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>399</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>14</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>9</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <f t="shared" si="1"/>
         <v>0.46</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="18">
-      <c r="A24" s="11" t="s">
+      <c r="H24" s="17"/>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="18">
+      <c r="A25" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>400</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>16</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2">
-        <v>2</v>
-      </c>
-      <c r="K24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="18">
-      <c r="A25" s="11" t="s">
+      <c r="H25" s="17"/>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="18">
+      <c r="A26" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>401</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>20</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="18">
-      <c r="A26" s="11" t="s">
+      <c r="H26" s="17"/>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+      <c r="K26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="18">
+      <c r="A27" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>402</v>
       </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26">
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
         <v>11</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G27" s="16">
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="18">
-      <c r="A27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="H27" s="17"/>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="18">
+      <c r="A28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
         <v>403</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>8</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>16</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G28" s="16">
         <f t="shared" si="2"/>
         <v>0.32</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2">
-        <v>2</v>
-      </c>
-      <c r="K27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="18">
-      <c r="A28" s="11" t="s">
+      <c r="H28" s="17"/>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="18">
+      <c r="A29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>404</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>20</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="2">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2">
-        <v>2</v>
-      </c>
-      <c r="K28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="18">
-      <c r="A29" s="11" t="s">
+      <c r="H29" s="17"/>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="18">
+      <c r="A30" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>405</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
         <v>18</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="2">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2">
-        <v>2</v>
-      </c>
-      <c r="K29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="18">
-      <c r="A30" s="11" t="s">
+      <c r="H30" s="17"/>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="18">
+      <c r="A31" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>409</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>23</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>18</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <f t="shared" si="1"/>
         <v>0.82</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="13">
         <f t="shared" si="2"/>
         <v>0.92</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="2">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18">
-      <c r="A34" s="11" t="s">
+      <c r="H31" s="17"/>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18">
+      <c r="A35" s="11" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>246</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>408</v>
       </c>
     </row>
@@ -21015,10 +21091,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21027,22 +21103,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="20" t="s">
         <v>451</v>
       </c>
     </row>
@@ -21060,10 +21137,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2">
         <v>2</v>
@@ -21074,7 +21151,7 @@
         <v>180</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -21086,7 +21163,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -21094,40 +21171,25 @@
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="A4" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="A5" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C4">
+      <c r="B5" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C5">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18">
-      <c r="A5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
@@ -21135,18 +21197,21 @@
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="A6" s="9" t="s">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -21155,87 +21220,90 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18">
       <c r="A7" s="9" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>14</v>
       </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
       <c r="E7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18">
       <c r="A8" s="9" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
       <c r="F8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18">
       <c r="A9" s="9" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18">
       <c r="A10" s="9" t="s">
-        <v>64</v>
+        <v>246</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>379</v>
+        <v>453</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -21244,47 +21312,47 @@
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18">
       <c r="A11" s="9" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18">
       <c r="A12" s="9" t="s">
-        <v>235</v>
+        <v>64</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -21295,40 +21363,40 @@
     </row>
     <row r="13" spans="1:7" ht="18">
       <c r="A13" s="9" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C13">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18">
       <c r="A14" s="9" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>11</v>
       </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
@@ -21336,21 +21404,21 @@
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18">
       <c r="A15" s="9" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -21359,27 +21427,27 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18">
       <c r="A16" s="9" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -21387,105 +21455,108 @@
     </row>
     <row r="17" spans="1:7" ht="18">
       <c r="A17" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18">
+      <c r="A18" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18">
+      <c r="A19" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B19" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>9</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>14</v>
       </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18">
-      <c r="A18" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>394</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18">
-      <c r="A19" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="B19" t="s">
-        <v>395</v>
-      </c>
-      <c r="C19">
-        <v>13</v>
-      </c>
-      <c r="D19">
-        <v>15</v>
-      </c>
       <c r="E19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18">
       <c r="A20" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B20" t="s">
-        <v>396</v>
+        <v>89</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18">
       <c r="A21" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="B21" t="s">
-        <v>397</v>
+        <v>301</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>395</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -21494,21 +21565,18 @@
         <v>2</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18">
       <c r="A22" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" t="s">
-        <v>398</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
+        <v>322</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>396</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -21517,61 +21585,43 @@
         <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18">
       <c r="A23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>399</v>
+        <v>387</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>397</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18">
       <c r="A24" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B24" t="s">
-        <v>400</v>
-      </c>
-      <c r="D24">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2</v>
-      </c>
-      <c r="G24" s="2">
-        <v>2</v>
+        <v>388</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18">
       <c r="A25" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="B25" t="s">
-        <v>401</v>
+        <v>127</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -21580,41 +21630,41 @@
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18">
       <c r="A26" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B26" t="s">
-        <v>402</v>
+        <v>30</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>399</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>6</v>
       </c>
       <c r="E26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
       </c>
       <c r="G26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18">
       <c r="A27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>403</v>
+        <v>169</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>457</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>9</v>
@@ -21623,21 +21673,24 @@
         <v>1</v>
       </c>
       <c r="F27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18">
       <c r="A28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>404</v>
+        <v>291</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -21651,45 +21704,114 @@
     </row>
     <row r="29" spans="1:7" ht="18">
       <c r="A29" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" t="s">
-        <v>405</v>
+        <v>191</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18">
       <c r="A30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18">
+      <c r="A31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18">
+      <c r="A32" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18">
+      <c r="A33" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="C30">
+      <c r="C33">
         <v>10</v>
       </c>
-      <c r="D30">
+      <c r="D33">
         <v>8</v>
       </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
